--- a/pred_ohlcv/54_21/2020-01-26 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BTG ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-4571.324453189998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4505.017053189998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4936.892753189998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4997.352753189998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-5016.733453189998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5008.779453189998</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5085.620853189998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5091.620853189998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4899.303953189999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4543.445353189998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4546.445353189998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4540.219153189998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4555.219153189998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4847.003153189998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4828.003153189998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4690.164553189998</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-7104.280953189992</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6578.431053189992</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-6518.067853189992</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6250.608653189992</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6100.108653189992</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6106.556353189992</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6104.820953189992</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5887.169053189991</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6044.213253189992</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6027.213253189992</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5671.467453189991</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5654.813153189991</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4212.886553189991</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4310.822953189991</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2028.14245318999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1898.28095318999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1766.78095318999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1976.28095318999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1906.28095318999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1277.71485318999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-320.8305158899901</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1061.67908411001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-970.06720223999</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1673.46440223999</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-3012.947335299988</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-2411.555135299988</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-2376.139935299988</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-2393.184635299988</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-631.5364352999882</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>4084.388643240012</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>4645.374570390011</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4641.263470390011</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4687.721170390011</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>4555.560070390011</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>6460.160036530013</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>6130.774936530012</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5961.774936530012</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6094.223031780012</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>6090.643031780012</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>6068.433931780012</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>5741.778131780013</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5519.549231780013</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5519.423431780013</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-26 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BTG ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-4571.324453189998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4505.017053189998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5005.092353189999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4936.892753189998</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-4941.227953189999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4997.352753189998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-5016.733453189998</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5008.779453189998</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5085.620853189998</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5091.620853189998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4903.120853189998</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4899.303953189999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4543.445353189998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4546.445353189998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4540.219153189998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4555.219153189998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4847.003153189998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4828.003153189998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4690.164553189998</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-7104.280953189992</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-7091.208053189992</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-7229.208053189992</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-7229.208053189992</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-7073.082353189992</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6578.431053189992</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-6644.504253189992</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-6698.547853189992</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-6518.067853189992</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6250.608653189992</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6100.108653189992</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6106.556353189992</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6104.820953189992</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6070.320953189992</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6068.560953189992</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6315.745853189991</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6444.800153189991</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-5860.80035318999</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5410.85525318999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5359.85525318999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-5629.958853189991</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-5967.345253189991</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-5969.185253189991</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6027.461853189991</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6005.423753189992</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-5937.169053189991</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-5887.169053189991</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-6044.213253189992</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-6027.213253189992</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5729.113253189991</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-5732.336953189991</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-5821.336953189991</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-5821.289953189991</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-5841.467453189991</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-5671.467453189991</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-5654.813153189991</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-5653.813153189991</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4212.886553189991</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4310.822953189991</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1978.14245318999</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2028.14245318999</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1898.28095318999</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1766.78095318999</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1976.28095318999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1906.28095318999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1277.71485318999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-834.9935345399902</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-320.8305158899901</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1061.67908411001</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2387.26028411001</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>2278.03118411001</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1757.54648411001</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1752.54648411001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1689.89388411001</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1680.36148411001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1455.16389776001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1234.79179776001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1278.20449776001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1305.14999776001</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1136.81789776001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1166.31789776001</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1142.54079776001</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1142.54079776001</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1086.59379776001</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1097.90229776001</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1097.99329776001</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1087.99329776001</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1373.06759776001</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>950.2407977600101</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>467.0372977600101</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>642.03729776001</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>452.23129776001</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>460.18799776001</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>786.68239776001</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>433.4856977600099</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>512.57319776001</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>460.84209776001</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>460.84209776001</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>196.49459776001</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>136.54599776001</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>100.80449776001</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-970.06720223999</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1673.46440223999</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1444.17500223999</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2149.44507694001</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2188.795476940009</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2346.77597694001</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2346.55407694001</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2383.77377694001</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2232.21437694001</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1340.164176940009</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1340.587476940009</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1372.873576940009</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>1974.894076940009</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>1524.056176940009</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-3012.947335299988</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-2411.555135299988</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-2376.139935299988</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-2393.184635299988</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-631.5364352999882</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>4595.294489680012</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>3180.575789680012</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2897.045989680012</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2830.328489680012</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3555.753643240012</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3801.279043240012</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3791.279043240012</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3818.310043240012</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3827.310043240012</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3851.895743240012</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3851.895743240012</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>4120.925743240012</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>4084.388643240012</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>4073.748743240012</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3985.987443240012</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3984.622443240012</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>4645.374570390011</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>4641.263470390011</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4687.721170390011</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>4711.501170390011</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>4788.530670390011</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>4754.302770390011</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>6460.160036530013</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>6130.774936530012</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>5961.774936530012</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6094.223031780012</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>6090.643031780012</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>6068.433931780012</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>5741.778131780013</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5519.549231780013</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5519.423431780013</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
